--- a/data/codebooks/codebook_values.xlsx
+++ b/data/codebooks/codebook_values.xlsx
@@ -517,13 +517,13 @@
     <t>02 bis 5 Jahre</t>
   </si>
   <si>
-    <t>&lt;5 years</t>
+    <t>02 to 05 years</t>
   </si>
   <si>
     <t>06 bis 9 Jahre</t>
   </si>
   <si>
-    <t>6 to 9 years</t>
+    <t>06 to 09 years</t>
   </si>
   <si>
     <t>10 bis 14 Jahre</t>
@@ -541,7 +541,7 @@
     <t>18+ Jahre</t>
   </si>
   <si>
-    <t>&gt;18 years</t>
+    <t>18+ years</t>
   </si>
   <si>
     <t>[05.09]</t>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="25.5">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>

--- a/data/codebooks/codebook_values.xlsx
+++ b/data/codebooks/codebook_values.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeisegeierS\repos\github\sport-adverse-events\data\codebooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272472FB-E148-4632-B9B0-D764175474B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$111</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -31,9 +40,6 @@
     <t>comment</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <sz val="8"/>
@@ -859,9 +865,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +899,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -904,12 +916,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -923,16 +935,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,77 +959,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1028,10 +1076,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1069,71 +1117,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1161,7 +1209,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1184,11 +1232,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1197,13 +1245,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1213,7 +1261,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1222,7 +1270,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1231,7 +1279,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1239,10 +1287,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1307,24 +1355,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="18" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="59.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="49.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="34.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33">
+    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1375,39 +1425,39 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="45" customFormat="1" s="9">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1470,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="54.75">
+    <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1437,7 +1487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1452,7 +1502,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1467,7 +1517,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1532,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1547,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1562,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1577,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1592,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1607,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1572,7 +1622,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1587,7 +1637,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1652,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1617,7 +1667,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5">
+    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1682,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1697,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1660,7 +1710,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="25.5">
+    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -1677,7 +1727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -1692,7 +1742,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1707,7 +1757,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1722,7 +1772,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1787,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -1752,7 +1802,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -1767,7 +1817,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -1782,7 +1832,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1795,7 +1845,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -1810,7 +1860,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30.75">
+    <row r="33" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -1825,7 +1875,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -1840,7 +1890,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
@@ -1855,7 +1905,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="30.75">
+    <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -1870,7 +1920,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>73</v>
       </c>
@@ -1885,7 +1935,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
@@ -1900,7 +1950,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>73</v>
       </c>
@@ -1915,7 +1965,7 @@
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>73</v>
       </c>
@@ -1930,7 +1980,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>73</v>
       </c>
@@ -1945,7 +1995,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>73</v>
       </c>
@@ -1960,7 +2010,7 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>73</v>
       </c>
@@ -1975,1035 +2025,1040 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.75">
-      <c r="A44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="12" t="s">
-        <v>100</v>
+    <row r="44" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
       </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="30.75">
-      <c r="A46" s="12" t="s">
-        <v>100</v>
+      <c r="E45" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="7">
+        <v>202</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="7">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="7">
+        <v>6</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="28">
+        <v>1</v>
+      </c>
+      <c r="E55" s="24"/>
+    </row>
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="7">
         <v>2</v>
       </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="7">
         <v>3</v>
       </c>
-      <c r="E47" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" s="7">
         <v>4</v>
       </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="30.75">
-      <c r="A49" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" s="7">
         <v>5</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="30.75">
-      <c r="A50" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="7">
         <v>6</v>
       </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="30.75">
-      <c r="A53" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="7">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="7">
-        <v>3</v>
-      </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="30.75">
-      <c r="A55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="7">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="7">
-        <v>3</v>
-      </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="7">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="7">
         <v>4</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="7">
-        <v>5</v>
-      </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="7">
-        <v>6</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="7">
-        <v>7</v>
-      </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="12" t="s">
-        <v>141</v>
+      <c r="E62" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
       </c>
-      <c r="E64" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="12" t="s">
-        <v>141</v>
+      <c r="E64" s="31"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D65" s="7">
         <v>2</v>
       </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="12" t="s">
+      <c r="E65" s="31"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="30"/>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="7">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D68" s="28">
+        <v>2</v>
+      </c>
+      <c r="E68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="7">
+        <v>3</v>
+      </c>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="7">
+        <v>4</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" s="7">
+        <v>5</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="30"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="28">
+        <v>2</v>
+      </c>
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="7">
+        <v>3</v>
+      </c>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B76" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="27"/>
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="28">
+        <v>2</v>
+      </c>
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D79" s="7">
         <v>3</v>
       </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="12" t="s">
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D80" s="7">
         <v>4</v>
       </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="1" t="s">
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-      <c r="E69" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="7">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" s="7">
-        <v>3</v>
-      </c>
-      <c r="E71" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" s="7">
-        <v>4</v>
-      </c>
-      <c r="E72" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="7">
-        <v>5</v>
-      </c>
-      <c r="E73" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="7">
-        <v>1</v>
-      </c>
-      <c r="E75" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D76" s="7">
-        <v>2</v>
-      </c>
-      <c r="E76" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="7">
-        <v>3</v>
-      </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="7">
-        <v>1</v>
-      </c>
-      <c r="E79" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="7">
-        <v>2</v>
-      </c>
-      <c r="E80" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="5" t="s">
-        <v>183</v>
+    <row r="82" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D82" s="7">
         <v>1</v>
       </c>
-      <c r="E82" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="5" t="s">
-        <v>183</v>
+      <c r="E82" s="24"/>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="D83" s="7">
         <v>2</v>
       </c>
-      <c r="E83" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="5" t="s">
-        <v>188</v>
+      <c r="E83" s="24"/>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D84" s="7">
+        <v>3</v>
+      </c>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="7">
+        <v>4</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="7">
+        <v>5</v>
+      </c>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="7">
+        <v>6</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="7">
         <v>1</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="40.5">
-      <c r="A86" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="40.5">
-      <c r="A87" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="28.5">
-      <c r="A89" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="40.5">
-      <c r="A90" s="5" t="s">
-        <v>212</v>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="D90" s="7">
+        <v>2</v>
+      </c>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="7">
         <v>3</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="28.5">
-      <c r="A91" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="5" t="s">
-        <v>215</v>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
-      <c r="A93" s="5" t="s">
-        <v>215</v>
+        <v>110</v>
+      </c>
+      <c r="D92" s="7">
+        <v>4</v>
+      </c>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
-      <c r="A94" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="33">
-      <c r="A95" s="5" t="s">
-        <v>228</v>
+        <v>112</v>
+      </c>
+      <c r="D93" s="7">
+        <v>5</v>
+      </c>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="27"/>
+      <c r="E94" s="30"/>
+    </row>
+    <row r="95" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="7">
+        <v>2</v>
+      </c>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="7">
+        <v>3</v>
+      </c>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" s="28">
         <v>4</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
-      <c r="A96" s="17"/>
-      <c r="B96" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="7">
+      <c r="E98" s="24"/>
+    </row>
+    <row r="99" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="7">
         <v>5</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
-      <c r="A97" s="17"/>
-      <c r="B97" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D97" s="7">
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="7">
         <v>6</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
-      <c r="A98" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
-      <c r="A99" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D99" s="7">
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" s="7">
+        <v>7</v>
+      </c>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="30"/>
+    </row>
+    <row r="103" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="7">
         <v>1</v>
       </c>
-      <c r="E99" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
-      <c r="A100" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D100" s="7">
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="7">
         <v>2</v>
       </c>
-      <c r="E100" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
-      <c r="A101" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D101" s="7">
-        <v>3</v>
-      </c>
-      <c r="E101" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
-      <c r="A102" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" s="7">
-        <v>4</v>
-      </c>
-      <c r="E102" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
-      <c r="A103" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D103" s="7">
-        <v>5</v>
-      </c>
-      <c r="E103" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
-      <c r="A104" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D104" s="7">
-        <v>6</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="33">
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="D106" s="7">
         <v>1</v>
       </c>
       <c r="E106" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+    <row r="107" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="D107" s="7">
         <v>2</v>
       </c>
       <c r="E107" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+    <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="D108" s="7">
         <v>3</v>
       </c>
       <c r="E108" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
-      <c r="A109" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D109" s="7">
-        <v>4</v>
-      </c>
-      <c r="E109" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
-      <c r="A110" s="5" t="s">
-        <v>256</v>
-      </c>
+    <row r="109" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="21"/>
+      <c r="B109" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" s="27"/>
+      <c r="E109" s="30"/>
+    </row>
+    <row r="110" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="16"/>
       <c r="B110" s="6" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="D110" s="7">
         <v>5</v>
       </c>
-      <c r="E110" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
-      <c r="A111" s="5" t="s">
-        <v>256</v>
-      </c>
+      <c r="E110" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="16"/>
       <c r="B111" s="6" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="D111" s="7">
         <v>6</v>
       </c>
-      <c r="E111" s="6"/>
+      <c r="E111" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E111" xr:uid="{F593F0E9-251C-4FBD-B11F-1E5402F9E7A8}">
+    <sortState ref="A2:E111">
+      <sortCondition ref="A1:A111"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/codebooks/codebook_values.xlsx
+++ b/data/codebooks/codebook_values.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeisegeierS\repos\github\sport-adverse-events\data\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272472FB-E148-4632-B9B0-D764175474B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF4CB8-19A2-48CF-A7CB-48A593C9B478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$E$106</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="255">
   <si>
     <t>code</t>
   </si>
@@ -91,6 +91,18 @@
     <t>Already present</t>
   </si>
   <si>
+    <t>[01.02]</t>
+  </si>
+  <si>
+    <t>Erstmals aufgetreten und sportassoziiert</t>
+  </si>
+  <si>
+    <t>First occurrence and Already present</t>
+  </si>
+  <si>
+    <t>* bedeutet, dass hier Mehrfachnennungen sind und ich das nochmal in die Tabellenbeschriftung reinnehmen; ist aber wahrscheinlich für Dich irrelevant&amp;#xA;[01.02] Pos 1 und [01.03] Position1</t>
+  </si>
+  <si>
     <t>[01.03]</t>
   </si>
   <si>
@@ -103,18 +115,6 @@
     <t>Antwort ja/yes</t>
   </si>
   <si>
-    <t>[01.02]</t>
-  </si>
-  <si>
-    <t>Erstmals aufgetreten und sportassoziiert</t>
-  </si>
-  <si>
-    <t>First occurrence and Already present</t>
-  </si>
-  <si>
-    <t>* bedeutet, dass hier Mehrfachnennungen sind und ich das nochmal in die Tabellenbeschriftung reinnehmen; ist aber wahrscheinlich für Dich irrelevant&amp;#xA;[01.02] Pos 1 und [01.03] Position1</t>
-  </si>
-  <si>
     <t>[02.02]</t>
   </si>
   <si>
@@ -145,7 +145,7 @@
     <t>Circulatory problems</t>
   </si>
   <si>
-    <t>Weichteil- / Gewebeverletzung</t>
+    <t>Weichteil-/Gewebeverletzung</t>
   </si>
   <si>
     <t>Soft tissue/injury</t>
@@ -238,7 +238,7 @@
     <t>Medical therapy</t>
   </si>
   <si>
-    <t>Stolpern, Ausrutschen, Fallen</t>
+    <t>Sturzereignis</t>
   </si>
   <si>
     <t>Fall event</t>
@@ -256,7 +256,7 @@
     <t>Psychological strain</t>
   </si>
   <si>
-    <t>Stoßen, Rempeln</t>
+    <t>Kollision</t>
   </si>
   <si>
     <t>Colliding</t>
@@ -355,12 +355,309 @@
     <t>Intimate area</t>
   </si>
   <si>
+    <t>[03.02]</t>
+  </si>
+  <si>
+    <t>Krankenhaus_Folge</t>
+  </si>
+  <si>
+    <t>With hospitalization</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>nur Yes</t>
+  </si>
+  <si>
+    <t>[03.03]</t>
+  </si>
+  <si>
+    <t>Med_Weiterbehandlung_Folge</t>
+  </si>
+  <si>
+    <t>Medical follow-up treatment</t>
+  </si>
+  <si>
+    <t>[03.04]</t>
+  </si>
+  <si>
+    <t>Therapieprotokoll_Folge</t>
+  </si>
+  <si>
+    <t>With delayed therapy protocol</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>[03.06]</t>
+  </si>
+  <si>
+    <t>Pflege_Folge</t>
+  </si>
+  <si>
+    <t>Increased care needs</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>[03.07]</t>
+  </si>
+  <si>
+    <t>Medikamente_Folge</t>
+  </si>
+  <si>
+    <t>With medication administration</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>[03.08.01]</t>
+  </si>
+  <si>
+    <t>bei dem Betroffenen selbst</t>
+  </si>
+  <si>
+    <t>For affected individuals</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>bei den Eltern</t>
+  </si>
+  <si>
+    <t>For parents</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>bei der Bewegungsfachkraft</t>
+  </si>
+  <si>
+    <t>For the excercise experts</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>im Behandlungsteam</t>
+  </si>
+  <si>
+    <t>In the treatment team</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>[03.08]</t>
+  </si>
+  <si>
+    <t>Angst_Folge</t>
+  </si>
+  <si>
+    <t>Occurrence of fear and uncertainty</t>
+  </si>
+  <si>
+    <t>[03.09]</t>
+  </si>
+  <si>
+    <t>Strukturanpassung_Folge</t>
+  </si>
+  <si>
+    <t>Structural adjustment</t>
+  </si>
+  <si>
+    <t>nur yes</t>
+  </si>
+  <si>
+    <t>By parents</t>
+  </si>
+  <si>
+    <t>By medical professionals</t>
+  </si>
+  <si>
+    <t>By nursing staff</t>
+  </si>
+  <si>
+    <t>By physiotherapy</t>
+  </si>
+  <si>
+    <t>By psychosocial service</t>
+  </si>
+  <si>
+    <t>[03.11]</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>[03.13.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Break </t>
+  </si>
+  <si>
+    <t>Abbruch</t>
+  </si>
+  <si>
+    <t>Cessation</t>
+  </si>
+  <si>
+    <t>[03.14.01]</t>
+  </si>
+  <si>
+    <t>Anpassung_Intensität</t>
+  </si>
+  <si>
+    <t>Intensität</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Kommunikationsstrategie</t>
+  </si>
+  <si>
+    <t>Communication strategy</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Räumlichkeit</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Übungsauswahl </t>
+  </si>
+  <si>
+    <t>Exercise selection</t>
+  </si>
+  <si>
+    <t>[05.01]</t>
+  </si>
+  <si>
+    <t>Therapiephase</t>
+  </si>
+  <si>
+    <t>Therapy phase</t>
+  </si>
+  <si>
+    <t>Akuttherapie</t>
+  </si>
+  <si>
+    <t>Acute therapy</t>
+  </si>
+  <si>
+    <t>Dauertherapie</t>
+  </si>
+  <si>
+    <t>Long-term therapy</t>
+  </si>
+  <si>
+    <t>Nachsorge</t>
+  </si>
+  <si>
+    <t>Aftercare</t>
+  </si>
+  <si>
+    <t>[05.02]</t>
+  </si>
+  <si>
+    <t>Gruppengröße</t>
+  </si>
+  <si>
+    <t>Group size</t>
+  </si>
+  <si>
+    <t>Einzel</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruppe 2 bis 5 TN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2-5 </t>
+  </si>
+  <si>
+    <t>Gruppe 5 bis 10 TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 5 to 10 </t>
+  </si>
+  <si>
+    <t>Gruppe über 10 TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group over 10 </t>
+  </si>
+  <si>
+    <t>[05.03]</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>02 bis 5 Jahre</t>
+  </si>
+  <si>
+    <t>02 to 05 years</t>
+  </si>
+  <si>
+    <t>06 bis 9 Jahre</t>
+  </si>
+  <si>
+    <t>06 to 09 years</t>
+  </si>
+  <si>
+    <t>10 bis 14 Jahre</t>
+  </si>
+  <si>
+    <t>10 to 14 years</t>
+  </si>
+  <si>
+    <t>15 bis 18 Jahre</t>
+  </si>
+  <si>
+    <t>15 to 18 years</t>
+  </si>
+  <si>
+    <t>18+ Jahre</t>
+  </si>
+  <si>
+    <t>18+ years</t>
+  </si>
+  <si>
+    <t>[05.05]</t>
+  </si>
+  <si>
+    <t>Testung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As part of testing</t>
+  </si>
+  <si>
     <t>[05.06]</t>
   </si>
   <si>
-    <t>Setting</t>
-  </si>
-  <si>
     <t>Die Frage zur Testung ist [05.05]; kann ich später händisch einfügen; Draußen umbenannt in "Im Freien"&amp;#xA;</t>
   </si>
   <si>
@@ -394,42 +691,6 @@
     <t>At home (via telemedicine)</t>
   </si>
   <si>
-    <t>[05.05]</t>
-  </si>
-  <si>
-    <t>Testung</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> As part of testing</t>
-  </si>
-  <si>
-    <t>[05.01]</t>
-  </si>
-  <si>
-    <t>Therapiephase</t>
-  </si>
-  <si>
-    <t>Therapy phase</t>
-  </si>
-  <si>
-    <t>Akuttherapie</t>
-  </si>
-  <si>
-    <t>Acute therapy</t>
-  </si>
-  <si>
-    <t>Dauertherapie</t>
-  </si>
-  <si>
-    <t>Long-term therapy</t>
-  </si>
-  <si>
-    <t>Nachsorge</t>
-  </si>
-  <si>
-    <t>Aftercare</t>
-  </si>
-  <si>
     <t>[05.07]</t>
   </si>
   <si>
@@ -478,76 +739,25 @@
     <t>Relaxation</t>
   </si>
   <si>
-    <t>[05.02]</t>
-  </si>
-  <si>
-    <t>Gruppengröße</t>
-  </si>
-  <si>
-    <t>Group size</t>
-  </si>
-  <si>
-    <t>Einzel</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruppe 2 bis 5 TN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 2-5 </t>
-  </si>
-  <si>
-    <t>Gruppe 5 bis 10 TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 5 to 10 </t>
-  </si>
-  <si>
-    <t>Gruppe über 10 TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group over 10 </t>
-  </si>
-  <si>
-    <t>[05.03]</t>
-  </si>
-  <si>
-    <t>Alter</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>02 bis 5 Jahre</t>
-  </si>
-  <si>
-    <t>02 to 05 years</t>
-  </si>
-  <si>
-    <t>06 bis 9 Jahre</t>
-  </si>
-  <si>
-    <t>06 to 09 years</t>
-  </si>
-  <si>
-    <t>10 bis 14 Jahre</t>
-  </si>
-  <si>
-    <t>10 to 14 years</t>
-  </si>
-  <si>
-    <t>15 bis 18 Jahre</t>
-  </si>
-  <si>
-    <t>15 to 18 years</t>
-  </si>
-  <si>
-    <t>18+ Jahre</t>
-  </si>
-  <si>
-    <t>18+ years</t>
+    <t>[05.08]</t>
+  </si>
+  <si>
+    <t>Hälfte</t>
+  </si>
+  <si>
+    <t>Time point</t>
+  </si>
+  <si>
+    <t>1. Hälfte</t>
+  </si>
+  <si>
+    <t>1st half</t>
+  </si>
+  <si>
+    <t>2. Hälfte</t>
+  </si>
+  <si>
+    <t>2nd half</t>
   </si>
   <si>
     <t>[05.09]</t>
@@ -577,289 +787,37 @@
     <t>Moderate</t>
   </si>
   <si>
-    <t>[05.08]</t>
-  </si>
-  <si>
-    <t>Hälfte</t>
-  </si>
-  <si>
-    <t>Time point</t>
-  </si>
-  <si>
-    <t>1. Hälfte</t>
-  </si>
-  <si>
-    <t>1st half</t>
-  </si>
-  <si>
-    <t>2. Hälfte</t>
-  </si>
-  <si>
-    <t>2nd half</t>
-  </si>
-  <si>
-    <t>Konsequenzen</t>
-  </si>
-  <si>
-    <t>Consequences</t>
-  </si>
-  <si>
-    <t>[03.13.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Break </t>
-  </si>
-  <si>
-    <t>Abbruch</t>
-  </si>
-  <si>
-    <t>Cessation</t>
-  </si>
-  <si>
-    <t>[03.03]</t>
-  </si>
-  <si>
-    <t>Med_Weiterbehandlung_Folge</t>
-  </si>
-  <si>
-    <t>Medical follow-up treatment</t>
-  </si>
-  <si>
-    <t>nur Yes</t>
-  </si>
-  <si>
-    <t>[03.07]</t>
-  </si>
-  <si>
-    <t>Medikamente_Folge</t>
-  </si>
-  <si>
-    <t>With medication administration</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>[03.02]</t>
-  </si>
-  <si>
-    <t>Krankenhaus_Folge</t>
-  </si>
-  <si>
-    <t>With hospitalization</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>[03.04]</t>
-  </si>
-  <si>
-    <t>Therapieprotokoll_Folge</t>
-  </si>
-  <si>
-    <t>With delayed therapy protocol</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>[03.12]</t>
-  </si>
-  <si>
-    <t>Observierung_Folge</t>
-  </si>
-  <si>
-    <t>With observation</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>[03.06]</t>
-  </si>
-  <si>
-    <t>Pflege_Folge</t>
-  </si>
-  <si>
-    <t>Increased care needs</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>[03.08]</t>
-  </si>
-  <si>
-    <t>Angst_Folge</t>
-  </si>
-  <si>
-    <t>Occurrence of fear and uncertainty</t>
-  </si>
-  <si>
-    <t>[03.08.01]</t>
-  </si>
-  <si>
-    <t>bei dem Betroffenen selbst</t>
-  </si>
-  <si>
-    <t>For affected individuals</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>bei den Eltern</t>
-  </si>
-  <si>
-    <t>For parents</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>bei der Bewegungsfachkraft</t>
-  </si>
-  <si>
-    <t>For the excercise experts</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>im Behandlungsteam</t>
-  </si>
-  <si>
-    <t>In the treatment team</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>[03.11]</t>
-  </si>
-  <si>
-    <t>PECH_Folge</t>
-  </si>
-  <si>
-    <t>Application RICE rule (Rest, Ice, Compression, Elevation)</t>
-  </si>
-  <si>
-    <t>Lebensnotwendige Intervention</t>
-  </si>
-  <si>
-    <t>Life-saving intervention</t>
-  </si>
-  <si>
-    <t>trage ich händisch ein</t>
-  </si>
-  <si>
-    <t>Tod</t>
-  </si>
-  <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>[03.14.01]</t>
-  </si>
-  <si>
-    <t>Anpassung_Intensität</t>
-  </si>
-  <si>
-    <t>Adaptations*</t>
-  </si>
-  <si>
-    <t>Intensität</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>Kommunikationsstrategie</t>
-  </si>
-  <si>
-    <t>Communication strategy</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Räumlichkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übungsauswahl </t>
-  </si>
-  <si>
-    <t>Exercise selection</t>
-  </si>
-  <si>
-    <t>[03.09]</t>
-  </si>
-  <si>
-    <t>Strukturanpassung_Folge</t>
-  </si>
-  <si>
-    <t>Structural adjustment</t>
-  </si>
-  <si>
-    <t>nur yes</t>
-  </si>
-  <si>
-    <t>[03.10]</t>
-  </si>
-  <si>
-    <t>Freigabe_Folge</t>
-  </si>
-  <si>
-    <t>Assessment of the situation by expertise</t>
-  </si>
-  <si>
-    <t>Letzter Punkt ist eine andre Frage; kann ich händisch dann hinzufügen</t>
-  </si>
-  <si>
-    <t>[03.10.02]</t>
-  </si>
-  <si>
-    <t>per Eltern</t>
-  </si>
-  <si>
-    <t>By parents</t>
-  </si>
-  <si>
-    <t>per Medizin</t>
-  </si>
-  <si>
-    <t>By medical professionals</t>
-  </si>
-  <si>
-    <t>per Pflege</t>
-  </si>
-  <si>
-    <t>By nursing staff</t>
-  </si>
-  <si>
-    <t>per Physiotherapie</t>
-  </si>
-  <si>
-    <t>By physiotherapy</t>
-  </si>
-  <si>
-    <t>per Psychosozialer Dienst</t>
-  </si>
-  <si>
-    <t>By psychosocial service</t>
-  </si>
-  <si>
-    <t>davon Freigabe zur Weiterführung</t>
-  </si>
-  <si>
-    <t>Approval for continuation</t>
+    <t>Adaptations</t>
+  </si>
+  <si>
+    <t>[03.10.01]</t>
+  </si>
+  <si>
+    <t>Eltern</t>
+  </si>
+  <si>
+    <t>Medizin</t>
+  </si>
+  <si>
+    <t>Pflege</t>
+  </si>
+  <si>
+    <t>Physiotherapie</t>
+  </si>
+  <si>
+    <t>Psychosozialer Dienst</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nein</t>
   </si>
 </sst>
 </file>
@@ -925,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -955,11 +913,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -994,19 +965,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1018,47 +989,96 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFC6C6C6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFC6C6C6"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1069,6 +1089,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33AC1FE3-524A-4007-AA21-B2F3BD743D38}" name="Tabelle1" displayName="Tabelle1" ref="A1:E106" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="A1:E106" xr:uid="{1F110EA3-52FF-411D-A862-9FE87E45FDDC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B71F53AD-CF1C-4529-9FE3-B40D3906F60B}" name="code"/>
+    <tableColumn id="2" xr3:uid="{92AA96DB-6E3B-4F0E-8E5E-15ACF55C560F}" name="de" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A37587FB-633C-4DB9-A54C-DE4C374C4F86}" name="en" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8518ACD7-7672-43BF-82EC-A6594C1015CE}" name="position" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{27CE153E-E6BC-47A0-8E91-A742C78E00E7}" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1359,39 +1393,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1425,39 +1459,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1504,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1487,7 +1521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1536,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1517,7 +1551,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1566,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +1581,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1562,7 +1596,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1577,7 +1611,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1626,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1607,7 +1641,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1622,7 +1656,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1637,7 +1671,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1652,7 +1686,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1701,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1716,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1697,7 +1731,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1710,7 +1744,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -1727,7 +1761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -1742,7 +1776,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1757,7 +1791,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1772,7 +1806,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -1787,7 +1821,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -1802,7 +1836,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -1817,7 +1851,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -1832,7 +1866,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1845,7 +1879,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -1860,7 +1894,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -1875,7 +1909,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -1890,7 +1924,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
@@ -1905,7 +1939,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -1920,7 +1954,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>73</v>
       </c>
@@ -1935,7 +1969,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
@@ -1950,7 +1984,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>73</v>
       </c>
@@ -1965,7 +1999,7 @@
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>73</v>
       </c>
@@ -1980,7 +2014,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>73</v>
       </c>
@@ -1995,7 +2029,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>73</v>
       </c>
@@ -2010,7 +2044,7 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>73</v>
       </c>
@@ -2025,1040 +2059,965 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
-        <v>188</v>
+    <row r="44" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
-        <v>200</v>
+      <c r="E45" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>203</v>
+        <v>110</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
-        <v>208</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>211</v>
+        <v>114</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
-        <v>192</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>195</v>
+        <v>118</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
-        <v>215</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>218</v>
+        <v>122</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
-        <v>215</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>221</v>
+        <v>125</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>227</v>
+        <v>131</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="D53" s="7">
         <v>3</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>248</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="D54" s="7">
         <v>6</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="28">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="7">
         <v>1</v>
       </c>
-      <c r="E55" s="24"/>
-    </row>
-    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="D56" s="7">
         <v>2</v>
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="D57" s="7">
         <v>3</v>
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="D59" s="7">
         <v>5</v>
       </c>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D60" s="7">
+        <v>4</v>
+      </c>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="7">
+        <v>2</v>
+      </c>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="7">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="7">
+        <v>3</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="7">
+        <v>4</v>
+      </c>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="7">
+        <v>5</v>
+      </c>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="7">
+        <v>2</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3</v>
+      </c>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="7">
+        <v>2</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="7">
+        <v>3</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="7">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="7">
+        <v>2</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="7">
+        <v>3</v>
+      </c>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="7">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="7">
+        <v>5</v>
+      </c>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="7">
         <v>6</v>
       </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="7">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="7">
+        <v>2</v>
+      </c>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="7">
+        <v>3</v>
+      </c>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="7">
+        <v>4</v>
+      </c>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="7">
+        <v>5</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="7">
+        <v>1</v>
+      </c>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" s="7">
+        <v>2</v>
+      </c>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D95" s="7">
+        <v>3</v>
+      </c>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="7">
+        <v>4</v>
+      </c>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" s="7">
+        <v>5</v>
+      </c>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" s="7">
+        <v>6</v>
+      </c>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99" s="7">
+        <v>7</v>
+      </c>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B100" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C100" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="7">
-        <v>4</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="7">
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="7">
         <v>1</v>
       </c>
-      <c r="E64" s="31"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="7">
         <v>2</v>
       </c>
-      <c r="E65" s="31"/>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="C103" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="D103" s="3"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="30"/>
-    </row>
-    <row r="67" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B67" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="D104" s="7">
+        <v>1</v>
+      </c>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D67" s="7">
-        <v>1</v>
-      </c>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" s="24" t="s">
+      <c r="C105" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="D105" s="7">
+        <v>2</v>
+      </c>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="28">
-        <v>2</v>
-      </c>
-      <c r="E68" s="24"/>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D69" s="7">
+      <c r="D106" s="7">
         <v>3</v>
       </c>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" s="7">
-        <v>4</v>
-      </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D71" s="7">
-        <v>5</v>
-      </c>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="30"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="7">
-        <v>1</v>
-      </c>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" s="28">
-        <v>2</v>
-      </c>
-      <c r="E74" s="24"/>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="7">
-        <v>3</v>
-      </c>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="30"/>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="7">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="28">
-        <v>2</v>
-      </c>
-      <c r="E78" s="24"/>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="7">
-        <v>3</v>
-      </c>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="7">
-        <v>4</v>
-      </c>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D82" s="7">
-        <v>1</v>
-      </c>
-      <c r="E82" s="24"/>
-    </row>
-    <row r="83" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D83" s="7">
-        <v>2</v>
-      </c>
-      <c r="E83" s="24"/>
-    </row>
-    <row r="84" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D84" s="7">
-        <v>3</v>
-      </c>
-      <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="7">
-        <v>4</v>
-      </c>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86" s="7">
-        <v>5</v>
-      </c>
-      <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D87" s="7">
-        <v>6</v>
-      </c>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D89" s="7">
-        <v>1</v>
-      </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="7">
-        <v>2</v>
-      </c>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91" s="7">
-        <v>3</v>
-      </c>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="7">
-        <v>4</v>
-      </c>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="7">
-        <v>5</v>
-      </c>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="27"/>
-      <c r="E94" s="30"/>
-    </row>
-    <row r="95" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="7">
-        <v>1</v>
-      </c>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96" s="7">
-        <v>2</v>
-      </c>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D97" s="7">
-        <v>3</v>
-      </c>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D98" s="28">
-        <v>4</v>
-      </c>
-      <c r="E98" s="24"/>
-    </row>
-    <row r="99" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D99" s="7">
-        <v>5</v>
-      </c>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="7">
-        <v>6</v>
-      </c>
-      <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D101" s="7">
-        <v>7</v>
-      </c>
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="30"/>
-    </row>
-    <row r="103" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="7">
-        <v>1</v>
-      </c>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="7">
-        <v>2</v>
-      </c>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D106" s="7">
-        <v>1</v>
-      </c>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D107" s="7">
-        <v>2</v>
-      </c>
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D108" s="7">
-        <v>3</v>
-      </c>
-      <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D109" s="27"/>
-      <c r="E109" s="30"/>
-    </row>
-    <row r="110" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16"/>
-      <c r="B110" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D110" s="7">
-        <v>5</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16"/>
-      <c r="B111" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D111" s="7">
-        <v>6</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
+    <row r="107" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:E111" xr:uid="{F593F0E9-251C-4FBD-B11F-1E5402F9E7A8}">
-    <sortState ref="A2:E111">
-      <sortCondition ref="A1:A111"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/codebooks/codebook_values.xlsx
+++ b/data/codebooks/codebook_values.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeisegeierS\repos\github\sport-adverse-events\data\codebooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF4CB8-19A2-48CF-A7CB-48A593C9B478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$E$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Sheet1!$A$1:$E$105</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="233">
   <si>
     <t>code</t>
   </si>
@@ -40,6 +34,9 @@
     <t>comment</t>
   </si>
   <si>
+    <r>
+      <t/>
+    </r>
     <r>
       <rPr>
         <sz val="8"/>
@@ -133,7 +130,7 @@
     <t>* bedeutet, dass hier Mehrfachnennungen sind und ich das nochmal in die Tabellenbeschriftung reinnehmen; ist aber wahrscheinlich für Dich irrelevant&amp;#xA;&amp;#xA;&amp;#xA;</t>
   </si>
   <si>
-    <t>Übelkeit/ Erbrechen</t>
+    <t>Übelkeit / Erbrechen</t>
   </si>
   <si>
     <t>Nausea/Vomiting</t>
@@ -283,7 +280,7 @@
     <t>Affected body parts</t>
   </si>
   <si>
-    <t>Internistisch</t>
+    <t>Innere Medizin</t>
   </si>
   <si>
     <t>Internal medicine type</t>
@@ -355,79 +352,43 @@
     <t>Intimate area</t>
   </si>
   <si>
-    <t>[03.02]</t>
-  </si>
-  <si>
-    <t>Krankenhaus_Folge</t>
-  </si>
-  <si>
-    <t>With hospitalization</t>
-  </si>
-  <si>
-    <t>1.2</t>
+    <t>[03.08]</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>[03.09]</t>
+  </si>
+  <si>
+    <t>[03.12]</t>
+  </si>
+  <si>
+    <t>[03.08.01]</t>
+  </si>
+  <si>
+    <t>Bei dem Betroffenen selbst</t>
+  </si>
+  <si>
+    <t>For affected individuals</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>nur Yes</t>
   </si>
   <si>
-    <t>[03.03]</t>
-  </si>
-  <si>
-    <t>Med_Weiterbehandlung_Folge</t>
-  </si>
-  <si>
-    <t>Medical follow-up treatment</t>
-  </si>
-  <si>
-    <t>[03.04]</t>
-  </si>
-  <si>
-    <t>Therapieprotokoll_Folge</t>
-  </si>
-  <si>
-    <t>With delayed therapy protocol</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>[03.06]</t>
-  </si>
-  <si>
-    <t>Pflege_Folge</t>
-  </si>
-  <si>
-    <t>Increased care needs</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>[03.07]</t>
-  </si>
-  <si>
-    <t>Medikamente_Folge</t>
-  </si>
-  <si>
-    <t>With medication administration</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>[03.08.01]</t>
-  </si>
-  <si>
-    <t>bei dem Betroffenen selbst</t>
-  </si>
-  <si>
-    <t>For affected individuals</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>bei den Eltern</t>
+    <t>Bei den Eltern des Betroffenen</t>
   </si>
   <si>
     <t>For parents</t>
@@ -436,7 +397,7 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>bei der Bewegungsfachkraft</t>
+    <t>Bei der Bewegungsfachkraft</t>
   </si>
   <si>
     <t>For the excercise experts</t>
@@ -445,7 +406,7 @@
     <t>3.3</t>
   </si>
   <si>
-    <t>im Behandlungsteam</t>
+    <t>Beim Behandlungsteam</t>
   </si>
   <si>
     <t>In the treatment team</t>
@@ -454,39 +415,42 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>[03.08]</t>
-  </si>
-  <si>
-    <t>Angst_Folge</t>
-  </si>
-  <si>
-    <t>Occurrence of fear and uncertainty</t>
-  </si>
-  <si>
-    <t>[03.09]</t>
-  </si>
-  <si>
-    <t>Strukturanpassung_Folge</t>
-  </si>
-  <si>
-    <t>Structural adjustment</t>
-  </si>
-  <si>
-    <t>nur yes</t>
+    <t>Mit der Ablehnung weiterer sporttherapheutischer Angebote</t>
+  </si>
+  <si>
+    <t>Offers rejected</t>
+  </si>
+  <si>
+    <t>[03.10.01]</t>
+  </si>
+  <si>
+    <t>Eltern</t>
   </si>
   <si>
     <t>By parents</t>
   </si>
   <si>
+    <t>Medizin</t>
+  </si>
+  <si>
     <t>By medical professionals</t>
   </si>
   <si>
+    <t>Pflege</t>
+  </si>
+  <si>
     <t>By nursing staff</t>
   </si>
   <si>
+    <t>Physiotherapie</t>
+  </si>
+  <si>
     <t>By physiotherapy</t>
   </si>
   <si>
+    <t>Psychosozialer Dienst</t>
+  </si>
+  <si>
     <t>By psychosocial service</t>
   </si>
   <si>
@@ -517,6 +481,9 @@
     <t>Anpassung_Intensität</t>
   </si>
   <si>
+    <t>Adaptations</t>
+  </si>
+  <si>
     <t>Intensität</t>
   </si>
   <si>
@@ -652,15 +619,12 @@
     <t>Testung</t>
   </si>
   <si>
-    <t xml:space="preserve"> As part of testing</t>
+    <t>As part of testing</t>
   </si>
   <si>
     <t>[05.06]</t>
   </si>
   <si>
-    <t>Die Frage zur Testung ist [05.05]; kann ich später händisch einfügen; Draußen umbenannt in "Im Freien"&amp;#xA;</t>
-  </si>
-  <si>
     <t>Turnhalle / Sportraum / Kraftraum</t>
   </si>
   <si>
@@ -785,46 +749,14 @@
   </si>
   <si>
     <t>Moderate</t>
-  </si>
-  <si>
-    <t>Adaptations</t>
-  </si>
-  <si>
-    <t>[03.10.01]</t>
-  </si>
-  <si>
-    <t>Eltern</t>
-  </si>
-  <si>
-    <t>Medizin</t>
-  </si>
-  <si>
-    <t>Pflege</t>
-  </si>
-  <si>
-    <t>Physiotherapie</t>
-  </si>
-  <si>
-    <t>Psychosozialer Dienst</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Nein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,13 +789,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -874,16 +799,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -893,16 +818,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,195 +838,94 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFC6C6C6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFC6C6C6"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33AC1FE3-524A-4007-AA21-B2F3BD743D38}" name="Tabelle1" displayName="Tabelle1" ref="A1:E106" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="A1:E106" xr:uid="{1F110EA3-52FF-411D-A862-9FE87E45FDDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E105" displayName="Tabelle1" name="Tabelle1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:E105"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B71F53AD-CF1C-4529-9FE3-B40D3906F60B}" name="code"/>
-    <tableColumn id="2" xr3:uid="{92AA96DB-6E3B-4F0E-8E5E-15ACF55C560F}" name="de" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A37587FB-633C-4DB9-A54C-DE4C374C4F86}" name="en" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8518ACD7-7672-43BF-82EC-A6594C1015CE}" name="position" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{27CE153E-E6BC-47A0-8E91-A742C78E00E7}" name="comment"/>
+    <tableColumn name="code" id="1"/>
+    <tableColumn name="de" id="2"/>
+    <tableColumn name="en" id="3"/>
+    <tableColumn name="position" id="4"/>
+    <tableColumn name="comment" id="5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -1110,10 +934,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1151,71 +975,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1243,7 +1067,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1266,11 +1090,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1279,13 +1103,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1295,7 +1119,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1304,7 +1128,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1313,7 +1137,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1321,10 +1145,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1389,43 +1213,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="18" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="59.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="49.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1459,7 +1281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="43.5" customFormat="1" s="9">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="9">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1504,7 +1326,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="52.5">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1521,7 +1343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1358,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1373,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1566,7 +1388,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1403,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1418,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -1611,7 +1433,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1626,7 +1448,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +1463,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1478,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1671,7 +1493,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1686,7 +1508,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +1523,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1716,7 +1538,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1553,7 @@
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1744,7 +1566,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -1761,7 +1583,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
@@ -1776,7 +1598,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -1791,7 +1613,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1806,7 +1628,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -1821,7 +1643,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -1836,7 +1658,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -1851,7 +1673,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1688,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1879,7 +1701,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -1894,7 +1716,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -1909,7 +1731,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -1924,7 +1746,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="5" t="s">
         <v>73</v>
       </c>
@@ -1939,7 +1761,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="30.75">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -1954,7 +1776,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="5" t="s">
         <v>73</v>
       </c>
@@ -1969,7 +1791,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="5" t="s">
         <v>73</v>
       </c>
@@ -1984,7 +1806,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="5" t="s">
         <v>73</v>
       </c>
@@ -1999,7 +1821,7 @@
       </c>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="5" t="s">
         <v>73</v>
       </c>
@@ -2014,7 +1836,7 @@
       </c>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="5" t="s">
         <v>73</v>
       </c>
@@ -2029,7 +1851,7 @@
       </c>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="5" t="s">
         <v>73</v>
       </c>
@@ -2044,7 +1866,7 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="5" t="s">
         <v>73</v>
       </c>
@@ -2059,961 +1881,930 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="C45" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="B48" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="30.75">
+      <c r="A50" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D50" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E50" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="30.75">
+      <c r="A51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D51" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="E51" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+      <c r="A52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="D52" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="E52" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+      <c r="A53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="C53" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="D53" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="E53" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C54" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="30.75">
+      <c r="A55" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="7">
-        <v>3</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="7">
-        <v>6</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="5" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>247</v>
+        <v>126</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D56" s="7">
         <v>2</v>
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="5" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D57" s="7">
         <v>3</v>
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="5" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="5" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D59" s="7">
         <v>5</v>
       </c>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="D60" s="7">
         <v>4</v>
       </c>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>146</v>
+        <v>102</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D62" s="7">
         <v>1</v>
       </c>
       <c r="E62" s="15"/>
     </row>
-    <row r="63" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D63" s="7">
         <v>2</v>
       </c>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>152</v>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
       </c>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>152</v>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D66" s="7">
         <v>2</v>
       </c>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>152</v>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D67" s="7">
         <v>3</v>
       </c>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>152</v>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D68" s="7">
         <v>4</v>
       </c>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="C69" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D69" s="7">
         <v>5</v>
       </c>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D71" s="7">
         <v>1</v>
       </c>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D72" s="7">
         <v>2</v>
       </c>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>173</v>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D75" s="7">
         <v>1</v>
       </c>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
-        <v>173</v>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D76" s="7">
         <v>2</v>
       </c>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>173</v>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D77" s="7">
         <v>3</v>
       </c>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D78" s="7">
         <v>4</v>
       </c>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>184</v>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+      <c r="A80" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D80" s="7">
         <v>1</v>
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>184</v>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+      <c r="A81" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
       </c>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>184</v>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="A82" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D82" s="7">
         <v>3</v>
       </c>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+      <c r="A83" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="D83" s="7">
         <v>4</v>
       </c>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>184</v>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+      <c r="A84" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D84" s="7">
         <v>5</v>
       </c>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
-        <v>197</v>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+      <c r="A85" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D85" s="7">
         <v>6</v>
       </c>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+      <c r="A86" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="7">
+        <v>1</v>
+      </c>
+      <c r="E86" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="24.75">
+      <c r="A87" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+      <c r="A88" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="7">
+        <v>3</v>
+      </c>
+      <c r="E88" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+      <c r="A89" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="7">
+        <v>4</v>
+      </c>
+      <c r="E89" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+      <c r="A90" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="4" t="s">
+      <c r="D90" s="7">
+        <v>5</v>
+      </c>
+      <c r="E90" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+      <c r="A91" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="6" t="s">
+      <c r="B91" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C91" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="7">
         <v>1</v>
       </c>
-      <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D88" s="7">
+      <c r="E92" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="A93" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="7">
         <v>2</v>
       </c>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" s="7">
+      <c r="E93" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+      <c r="A94" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" s="7">
         <v>3</v>
       </c>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" s="7">
+      <c r="E94" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+      <c r="A95" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="7">
         <v>4</v>
       </c>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C91" s="6" t="s">
+      <c r="E95" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+      <c r="A96" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D91" s="7">
+      <c r="C96" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="7">
         <v>5</v>
       </c>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="E96" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+      <c r="A97" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C97" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B93" s="6" t="s">
+      <c r="D97" s="7">
+        <v>6</v>
+      </c>
+      <c r="E97" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+      <c r="A98" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D98" s="7">
+        <v>7</v>
+      </c>
+      <c r="E98" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+      <c r="A99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+      <c r="A100" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" s="7">
         <v>1</v>
       </c>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" s="6" t="s">
+      <c r="E100" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+      <c r="A101" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D94" s="7">
+      <c r="B101" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="7">
         <v>2</v>
       </c>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D95" s="7">
+      <c r="E101" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+      <c r="A102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+      <c r="A103" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+      <c r="A104" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="7">
+        <v>2</v>
+      </c>
+      <c r="E104" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+      <c r="A105" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="7">
         <v>3</v>
       </c>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" s="7">
-        <v>4</v>
-      </c>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D97" s="7">
-        <v>5</v>
-      </c>
-      <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D98" s="7">
-        <v>6</v>
-      </c>
-      <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D99" s="7">
-        <v>7</v>
-      </c>
-      <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D101" s="7">
-        <v>1</v>
-      </c>
-      <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D102" s="7">
-        <v>2</v>
-      </c>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D104" s="7">
-        <v>1</v>
-      </c>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D105" s="7">
-        <v>2</v>
-      </c>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D106" s="7">
-        <v>3</v>
-      </c>
-      <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/codebooks/codebook_values.xlsx
+++ b/data/codebooks/codebook_values.xlsx
@@ -10,14 +10,14 @@
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Sheet1!$A$1:$E$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Sheet1!$A$1:$E$104</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="230">
   <si>
     <t>code</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Das AE ist neu aufgetreten.</t>
   </si>
   <si>
-    <t>First occurrence</t>
+    <t>New onset</t>
   </si>
   <si>
     <t>…</t>
@@ -85,7 +85,7 @@
     <t>Das AE war vor dem Sport bereits vorhanden und hat sich verstärkt.</t>
   </si>
   <si>
-    <t>Already present</t>
+    <t>Pre-existing, aggravated</t>
   </si>
   <si>
     <t>[01.02]</t>
@@ -94,7 +94,7 @@
     <t>Erstmals aufgetreten und sportassoziiert</t>
   </si>
   <si>
-    <t>First occurrence and Already present</t>
+    <t>First occurrence and already present</t>
   </si>
   <si>
     <t>* bedeutet, dass hier Mehrfachnennungen sind und ich das nochmal in die Tabellenbeschriftung reinnehmen; ist aber wahrscheinlich für Dich irrelevant&amp;#xA;[01.02] Pos 1 und [01.03] Position1</t>
@@ -133,7 +133,7 @@
     <t>Übelkeit / Erbrechen</t>
   </si>
   <si>
-    <t>Nausea/Vomiting</t>
+    <t>Nausea/vomiting</t>
   </si>
   <si>
     <t>Kreislaufprobleme</t>
@@ -145,7 +145,7 @@
     <t>Weichteil-/Gewebeverletzung</t>
   </si>
   <si>
-    <t>Soft tissue/injury</t>
+    <t>Soft-tissue injury</t>
   </si>
   <si>
     <t xml:space="preserve">Oberflächliche Verletzungen </t>
@@ -169,7 +169,7 @@
     <t>Starke Erschöpfung</t>
   </si>
   <si>
-    <t>Severe exhaustion</t>
+    <t>Physical (Over)exertion</t>
   </si>
   <si>
     <t>Hustenanfall</t>
@@ -199,10 +199,10 @@
     <t>Nosebleed</t>
   </si>
   <si>
-    <t xml:space="preserve">Stuhlgang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spontaneous painful bowel movement </t>
+    <t>Schmerzhafter Stuhlgang</t>
+  </si>
+  <si>
+    <t>Spontaneous painful bowel movement</t>
   </si>
   <si>
     <t>Muskelkrämpfe</t>
@@ -223,22 +223,19 @@
     <t>Physische Belastung</t>
   </si>
   <si>
-    <t>Physical strain</t>
-  </si>
-  <si>
     <t>bitte drauf achten, dass 2 Gruppen umbenannt wurden: Stoßen, Rempeln  jetzt Kollidieren; Stolpern, fallen.. Jetzt Sturzeregnis</t>
   </si>
   <si>
     <t>Med. Therapie</t>
   </si>
   <si>
-    <t>Medical therapy</t>
+    <t>Medical treatment</t>
   </si>
   <si>
     <t>Sturzereignis</t>
   </si>
   <si>
-    <t>Fall event</t>
+    <t>Fall-related incident</t>
   </si>
   <si>
     <t>Koordinationsprobleme</t>
@@ -250,13 +247,13 @@
     <t>Psychische Belastung</t>
   </si>
   <si>
-    <t>Psychological strain</t>
+    <t>Psychological stress</t>
   </si>
   <si>
     <t>Kollision</t>
   </si>
   <si>
-    <t>Colliding</t>
+    <t>Collision</t>
   </si>
   <si>
     <t>Umgebungsbedingungen</t>
@@ -283,7 +280,7 @@
     <t>Innere Medizin</t>
   </si>
   <si>
-    <t>Internal medicine type</t>
+    <t>Internal organ</t>
   </si>
   <si>
     <t>untere Extremitäten</t>
@@ -337,7 +334,7 @@
     <t>Darm</t>
   </si>
   <si>
-    <t>Intestine</t>
+    <t>Bowel</t>
   </si>
   <si>
     <t xml:space="preserve">Steiß </t>
@@ -349,7 +346,7 @@
     <t>Intimbereich</t>
   </si>
   <si>
-    <t>Intimate area</t>
+    <t>Genital area</t>
   </si>
   <si>
     <t>[03.08]</t>
@@ -427,52 +424,49 @@
     <t>Eltern</t>
   </si>
   <si>
-    <t>By parents</t>
+    <t>Parents</t>
   </si>
   <si>
     <t>Medizin</t>
   </si>
   <si>
-    <t>By medical professionals</t>
+    <t>Medical team</t>
   </si>
   <si>
     <t>Pflege</t>
   </si>
   <si>
-    <t>By nursing staff</t>
+    <t>Nursing team</t>
   </si>
   <si>
     <t>Physiotherapie</t>
   </si>
   <si>
-    <t>By physiotherapy</t>
+    <t>Physiotherapy</t>
   </si>
   <si>
     <t>Psychosozialer Dienst</t>
   </si>
   <si>
-    <t>By psychosocial service</t>
+    <t>Psychosocial team</t>
   </si>
   <si>
     <t>[03.11]</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
     <t>[03.13.01]</t>
   </si>
   <si>
     <t xml:space="preserve">Pause </t>
   </si>
   <si>
-    <t xml:space="preserve">Break </t>
+    <t>Suspension of session</t>
   </si>
   <si>
     <t>Abbruch</t>
   </si>
   <si>
-    <t>Cessation</t>
+    <t>Termination of session</t>
   </si>
   <si>
     <t>[03.14.01]</t>
@@ -538,7 +532,7 @@
     <t>Nachsorge</t>
   </si>
   <si>
-    <t>Aftercare</t>
+    <t>Post-treatment care</t>
   </si>
   <si>
     <t>[05.02]</t>
@@ -628,13 +622,13 @@
     <t>Turnhalle / Sportraum / Kraftraum</t>
   </si>
   <si>
-    <t>Gym</t>
+    <t>Exercise room</t>
   </si>
   <si>
     <t>Pat.-Zimmer</t>
   </si>
   <si>
-    <t>Patients room</t>
+    <t>Patient room</t>
   </si>
   <si>
     <t>Klinikflur</t>
@@ -646,7 +640,7 @@
     <t>Draußen</t>
   </si>
   <si>
-    <t xml:space="preserve">Outside </t>
+    <t>Outdoors</t>
   </si>
   <si>
     <t>Zuhause</t>
@@ -685,6 +679,9 @@
     <t>Ganzkörpertraining</t>
   </si>
   <si>
+    <t>Multimodal</t>
+  </si>
+  <si>
     <t>Schnelligkeit</t>
   </si>
   <si>
@@ -706,22 +703,16 @@
     <t>[05.08]</t>
   </si>
   <si>
-    <t>Hälfte</t>
-  </si>
-  <si>
-    <t>Time point</t>
-  </si>
-  <si>
     <t>1. Hälfte</t>
   </si>
   <si>
-    <t>1st half</t>
+    <t>First Half</t>
   </si>
   <si>
     <t>2. Hälfte</t>
   </si>
   <si>
-    <t>2nd half</t>
+    <t>Second Half</t>
   </si>
   <si>
     <t>[05.09]</t>
@@ -756,7 +747,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,6 +771,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -877,11 +874,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,7 +886,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -916,8 +913,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E105" displayName="Tabelle1" name="Tabelle1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:E105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E104" displayName="Tabelle1" name="Tabelle1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:E104"/>
   <tableColumns count="5">
     <tableColumn name="code" id="1"/>
     <tableColumn name="de" id="2"/>
@@ -1217,7 +1214,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1574,13 +1571,13 @@
         <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
@@ -1588,10 +1585,10 @@
         <v>53</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -1603,10 +1600,10 @@
         <v>53</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D25" s="7">
         <v>3</v>
@@ -1618,10 +1615,10 @@
         <v>53</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D26" s="7">
         <v>4</v>
@@ -1633,10 +1630,10 @@
         <v>53</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D27" s="7">
         <v>5</v>
@@ -1648,10 +1645,10 @@
         <v>53</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D28" s="7">
         <v>6</v>
@@ -1663,10 +1660,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D29" s="7">
         <v>7</v>
@@ -1678,10 +1675,10 @@
         <v>53</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D30" s="7">
         <v>8</v>
@@ -1690,26 +1687,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
@@ -1718,28 +1715,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D33" s="7">
         <v>2</v>
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -1748,28 +1745,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D35" s="7">
         <v>4</v>
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D36" s="7">
         <v>5</v>
@@ -1778,13 +1775,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D37" s="7">
         <v>6</v>
@@ -1793,13 +1790,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D38" s="7">
         <v>7</v>
@@ -1808,13 +1805,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D39" s="7">
         <v>8</v>
@@ -1823,13 +1820,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D40" s="7">
         <v>9</v>
@@ -1838,13 +1835,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -1853,13 +1850,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D42" s="7">
         <v>11</v>
@@ -1868,13 +1865,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="D43" s="7">
         <v>12</v>
@@ -1883,172 +1880,180 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="13">
+        <v>2</v>
+      </c>
       <c r="E44" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="13"/>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
       <c r="E45" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="13"/>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
       <c r="E46" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="13"/>
+      <c r="D47" s="13">
+        <v>2</v>
+      </c>
       <c r="E47" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+      <c r="A51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="30.75">
-      <c r="A51" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>114</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>117</v>
-      </c>
       <c r="E52" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="E53" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="30.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
@@ -2057,13 +2062,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="D56" s="7">
         <v>2</v>
@@ -2072,131 +2077,131 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D57" s="7">
         <v>3</v>
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
       </c>
       <c r="E58" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D59" s="7">
         <v>5</v>
       </c>
       <c r="E59" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+      <c r="A61" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="14">
+        <v>2</v>
+      </c>
+      <c r="E61" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+      <c r="A62" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="7">
-        <v>4</v>
-      </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61" s="14" t="s">
+      <c r="B62" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="D62" s="7">
         <v>1</v>
       </c>
       <c r="E62" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D63" s="7">
         <v>2</v>
       </c>
       <c r="E63" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
@@ -2205,13 +2210,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D66" s="7">
         <v>2</v>
@@ -2220,13 +2225,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D67" s="7">
         <v>3</v>
@@ -2235,13 +2240,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D68" s="7">
         <v>4</v>
@@ -2250,13 +2255,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D69" s="7">
         <v>5</v>
@@ -2265,26 +2270,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D71" s="7">
         <v>1</v>
@@ -2293,13 +2298,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D72" s="7">
         <v>2</v>
@@ -2308,13 +2313,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
@@ -2323,26 +2328,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D75" s="7">
         <v>1</v>
@@ -2351,13 +2356,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D76" s="7">
         <v>2</v>
@@ -2366,13 +2371,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D77" s="7">
         <v>3</v>
@@ -2381,13 +2386,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D78" s="7">
         <v>4</v>
@@ -2396,26 +2401,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D80" s="7">
         <v>1</v>
@@ -2424,13 +2429,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -2439,13 +2444,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D82" s="7">
         <v>3</v>
@@ -2454,13 +2459,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D83" s="7">
         <v>4</v>
@@ -2469,13 +2474,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D84" s="7">
         <v>5</v>
@@ -2484,13 +2489,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="D85" s="7">
         <v>6</v>
@@ -2499,13 +2504,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="D86" s="7">
         <v>1</v>
@@ -2514,13 +2519,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="24.75">
       <c r="A87" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D87" s="7">
         <v>2</v>
@@ -2529,13 +2534,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D88" s="7">
         <v>3</v>
@@ -2544,13 +2549,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="7">
         <v>4</v>
@@ -2559,13 +2564,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D90" s="7">
         <v>5</v>
@@ -2574,26 +2579,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
@@ -2602,13 +2607,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D93" s="7">
         <v>2</v>
@@ -2617,13 +2622,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D94" s="7">
         <v>3</v>
@@ -2632,13 +2637,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="D95" s="7">
         <v>4</v>
@@ -2647,13 +2652,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="D96" s="7">
         <v>5</v>
@@ -2662,13 +2667,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="D97" s="7">
         <v>6</v>
@@ -2677,13 +2682,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="D98" s="7">
         <v>7</v>
@@ -2691,105 +2696,99 @@
       <c r="E98" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="4"/>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="7">
+        <v>2</v>
+      </c>
+      <c r="E100" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+      <c r="A101" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D100" s="7">
+      <c r="B101" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+      <c r="A102" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="7">
         <v>1</v>
       </c>
-      <c r="E100" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
-      <c r="A101" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D101" s="7">
-        <v>2</v>
-      </c>
-      <c r="E101" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
-      <c r="A102" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="D103" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="D104" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
-      <c r="A105" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="7">
-        <v>3</v>
-      </c>
-      <c r="E105" s="6"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="12"/>
@@ -2797,13 +2796,6 @@
       <c r="C106" s="12"/>
       <c r="D106" s="13"/>
       <c r="E106" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
